--- a/R1_by_R2 (100 by 1).xlsx
+++ b/R1_by_R2 (100 by 1).xlsx
@@ -65,306 +65,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6.441557374423731</v>
+        <v>6.441557735921384</v>
       </c>
       <c r="B1" t="n">
-        <v>6.441555148220956</v>
+        <v>6.441555721155307</v>
       </c>
       <c r="C1" t="n">
-        <v>6.44155161993418</v>
+        <v>6.441552527971875</v>
       </c>
       <c r="D1" t="n">
-        <v>6.441546027993684</v>
+        <v>6.441547467131276</v>
       </c>
       <c r="E1" t="n">
-        <v>6.441537165408456</v>
+        <v>6.441539446274843</v>
       </c>
       <c r="F1" t="n">
-        <v>6.441523119265964</v>
+        <v>6.441526734162958</v>
       </c>
       <c r="G1" t="n">
-        <v>6.441500857902891</v>
+        <v>6.4415065870466</v>
       </c>
       <c r="H1" t="n">
-        <v>6.441465576704683</v>
+        <v>6.441474656579759</v>
       </c>
       <c r="I1" t="n">
-        <v>6.441409661493344</v>
+        <v>6.4414240516086485</v>
       </c>
       <c r="J1" t="n">
-        <v>6.441321046174508</v>
+        <v>6.441343851672017</v>
       </c>
       <c r="K1" t="n">
-        <v>6.4411806112066285</v>
+        <v>6.441216752223627</v>
       </c>
       <c r="L1" t="n">
-        <v>6.440958064025927</v>
+        <v>6.441015335488578</v>
       </c>
       <c r="M1" t="n">
-        <v>6.440605418930672</v>
+        <v>6.440696167517616</v>
       </c>
       <c r="N1" t="n">
-        <v>6.440046685906224</v>
+        <v>6.440190461092096</v>
       </c>
       <c r="O1" t="n">
-        <v>6.439161584976903</v>
+        <v>6.4393893236904</v>
       </c>
       <c r="P1" t="n">
-        <v>6.437759876684043</v>
+        <v>6.438120493051946</v>
       </c>
       <c r="Q1" t="n">
-        <v>6.43554103270516</v>
+        <v>6.436111755819869</v>
       </c>
       <c r="R1" t="n">
-        <v>6.432031202167512</v>
+        <v>6.432933695230122</v>
       </c>
       <c r="S1" t="n">
-        <v>6.426485509699786</v>
+        <v>6.427910758434667</v>
       </c>
       <c r="T1" t="n">
-        <v>6.417738651105603</v>
+        <v>6.419984783070837</v>
       </c>
       <c r="U1" t="n">
-        <v>6.403981452187782</v>
+        <v>6.407509702496079</v>
       </c>
       <c r="V1" t="n">
-        <v>6.382439018518173</v>
+        <v>6.387952875326897</v>
       </c>
       <c r="W1" t="n">
-        <v>6.348936960542983</v>
+        <v>6.357485221887086</v>
       </c>
       <c r="X1" t="n">
-        <v>6.297387956072112</v>
+        <v>6.310477797867671</v>
       </c>
       <c r="Y1" t="n">
-        <v>6.219352244895263</v>
+        <v>6.239023050976695</v>
       </c>
       <c r="Z1" t="n">
-        <v>6.1040705566665805</v>
+        <v>6.132814483008997</v>
       </c>
       <c r="AA1" t="n">
-        <v>5.939711153139236</v>
+        <v>5.980052594939213</v>
       </c>
       <c r="AB1" t="n">
-        <v>5.716697645601688</v>
+        <v>5.77026907198319</v>
       </c>
       <c r="AC1" t="n">
-        <v>5.433084161665021</v>
+        <v>5.49936744582363</v>
       </c>
       <c r="AD1" t="n">
-        <v>5.0994042499423555</v>
+        <v>5.174962793976498</v>
       </c>
       <c r="AE1" t="n">
-        <v>4.738094243943936</v>
+        <v>4.817377733683136</v>
       </c>
       <c r="AF1" t="n">
-        <v>4.37512941876154</v>
+        <v>4.452802379616608</v>
       </c>
       <c r="AG1" t="n">
-        <v>4.029086270305612</v>
+        <v>4.102141082202152</v>
       </c>
       <c r="AH1" t="n">
-        <v>3.7063088256088936</v>
+        <v>3.7743203894483237</v>
       </c>
       <c r="AI1" t="n">
-        <v>3.4046621663729892</v>
+        <v>3.4684471603152365</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.120447025485108</v>
+        <v>3.180670805036231</v>
       </c>
       <c r="AK1" t="n">
-        <v>2.852198325358841</v>
+        <v>2.9089686796574057</v>
       </c>
       <c r="AL1" t="n">
-        <v>2.600204774873722</v>
+        <v>2.653406336742766</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.364833290225641</v>
+        <v>2.414427094453848</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.145989025174821</v>
+        <v>2.192025269394547</v>
       </c>
       <c r="AO1" t="n">
-        <v>1.9433340039378846</v>
+        <v>1.9858967947280726</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.7564124708035842</v>
+        <v>1.7956103901048204</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.584652525912433</v>
+        <v>1.6206189532975959</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.4273806460112475</v>
+        <v>1.4602689264199948</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.2838456768960256</v>
+        <v>1.3138240186774612</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.1532414460052776</v>
+        <v>1.1804881126667717</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0347281683127914</v>
+        <v>1.0594269774593899</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9274519015196644</v>
+        <v>0.9497882089532259</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8305614748117937</v>
+        <v>0.8507187384220164</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.7432226076838306</v>
+        <v>0.7613795725171221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-455.59013187038886</v>
+        <v>-478.8991710318603</v>
       </c>
       <c r="B2" t="n">
-        <v>-361.88983269540347</v>
+        <v>-380.4047765442872</v>
       </c>
       <c r="C2" t="n">
-        <v>-287.46148674562636</v>
+        <v>-302.16832355748437</v>
       </c>
       <c r="D2" t="n">
-        <v>-228.34151319114005</v>
+        <v>-240.0234356560022</v>
       </c>
       <c r="E2" t="n">
-        <v>-181.38155785060107</v>
+        <v>-190.66067094015537</v>
       </c>
       <c r="F2" t="n">
-        <v>-144.08083184683235</v>
+        <v>-151.45128217372138</v>
       </c>
       <c r="G2" t="n">
-        <v>-114.45293547251937</v>
+        <v>-120.30722640144663</v>
       </c>
       <c r="H2" t="n">
-        <v>-90.92007514754606</v>
+        <v>-95.56996903484377</v>
       </c>
       <c r="I2" t="n">
-        <v>-72.22904012786015</v>
+        <v>-75.9221608120441</v>
       </c>
       <c r="J2" t="n">
-        <v>-57.3844644045659</v>
+        <v>-60.31748409512502</v>
       </c>
       <c r="K2" t="n">
-        <v>-45.59581971677806</v>
+        <v>-47.92493253925839</v>
       </c>
       <c r="L2" t="n">
-        <v>-36.23531680460154</v>
+        <v>-38.08455677269047</v>
       </c>
       <c r="M2" t="n">
-        <v>-28.804472874301737</v>
+        <v>-30.27231928361147</v>
       </c>
       <c r="N2" t="n">
-        <v>-22.907564639979782</v>
+        <v>-24.072186709248026</v>
       </c>
       <c r="O2" t="n">
-        <v>-18.230552759318396</v>
+        <v>-19.15397294336511</v>
       </c>
       <c r="P2" t="n">
-        <v>-14.524354399121856</v>
+        <v>-15.255752339275483</v>
       </c>
       <c r="Q2" t="n">
-        <v>-11.591571324674478</v>
+        <v>-12.169904886645398</v>
       </c>
       <c r="R2" t="n">
-        <v>-9.275963169137581</v>
+        <v>-9.73204713691606</v>
       </c>
       <c r="S2" t="n">
-        <v>-7.454098316941219</v>
+        <v>-7.812253369775461</v>
       </c>
       <c r="T2" t="n">
-        <v>-6.028724278675518</v>
+        <v>-6.308087778023478</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.923478874179199</v>
+        <v>-5.139054254668047</v>
       </c>
       <c r="V2" t="n">
-        <v>-4.078613409174911</v>
+        <v>-4.242126739397671</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.447417791931719</v>
+        <v>-3.5680487008269917</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.9930268129116175</v>
+        <v>-3.0780852666378635</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.6852683806139774</v>
+        <v>-2.7408907239499145</v>
       </c>
       <c r="Z2" t="n">
-        <v>-2.497270189137135</v>
+        <v>-2.5291817105037646</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.401865596508718</v>
+        <v>-2.4161498729682154</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.36868579640068</v>
+        <v>-2.3722675626795</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.3640323074225424</v>
+        <v>-2.3643368164425658</v>
       </c>
       <c r="AD2" t="n">
-        <v>-2.355712239976004</v>
+        <v>-2.359167688959688</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.321736151956107</v>
+        <v>-2.3318191278249585</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.256533363285028</v>
+        <v>-2.27303525290672</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.1683761425477233</v>
+        <v>-2.1887728161542075</v>
       </c>
       <c r="AH2" t="n">
-        <v>-2.0697415110834547</v>
+        <v>-2.091486632674215</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.9688709342286774</v>
+        <v>-1.9907343392963113</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.868027715796878</v>
+        <v>-1.88989513334061</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.7667199814516326</v>
+        <v>-1.7887375839066375</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.6647965136113103</v>
+        <v>-1.6869068834077037</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.5629738930405335</v>
+        <v>-1.5849832894914522</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.4621500379934307</v>
+        <v>-1.483873376985267</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.363092387208027</v>
+        <v>-1.384373236688077</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.2664775581930476</v>
+        <v>-1.287175077296679</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.1729082447303125</v>
+        <v>-1.1928990043111976</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.0828974571241068</v>
+        <v>-1.1020783655402038</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.996861737540488</v>
+        <v>-1.0151508294571454</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.9151200473935113</v>
+        <v>-0.9324564106380583</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.8378963360133747</v>
+        <v>-0.8542392545048467</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.7653253315876571</v>
+        <v>-0.7806527986321665</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.6974607236700677</v>
+        <v>-0.7117675077143383</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.6342849198863678</v>
+        <v>-0.6475803559925231</v>
       </c>
     </row>
   </sheetData>
@@ -382,306 +382,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-95.59285477739148</v>
+        <v>-105.38034579790039</v>
       </c>
       <c r="B1" t="n">
-        <v>-60.12014104593332</v>
+        <v>-66.60884805765447</v>
       </c>
       <c r="C1" t="n">
-        <v>-36.85402136869339</v>
+        <v>-41.08078998129871</v>
       </c>
       <c r="D1" t="n">
-        <v>-21.80372027782498</v>
+        <v>-24.52577640297339</v>
       </c>
       <c r="E1" t="n">
-        <v>-12.154182540867723</v>
+        <v>-13.894541613972233</v>
       </c>
       <c r="F1" t="n">
-        <v>-6.00127948373308</v>
+        <v>-7.109172769733845</v>
       </c>
       <c r="G1" t="n">
-        <v>-2.0896419113344025</v>
+        <v>-2.7935027635974303</v>
       </c>
       <c r="H1" t="n">
-        <v>0.3957251900844109</v>
+        <v>-0.05173171199983765</v>
       </c>
       <c r="I1" t="n">
-        <v>1.9795934538636784</v>
+        <v>1.6936549952948818</v>
       </c>
       <c r="J1" t="n">
-        <v>2.999373927192765</v>
+        <v>2.813848850992921</v>
       </c>
       <c r="K1" t="n">
-        <v>3.673929586416842</v>
+        <v>3.54886059500388</v>
       </c>
       <c r="L1" t="n">
-        <v>4.149632544915331</v>
+        <v>4.057684013694666</v>
       </c>
       <c r="M1" t="n">
-        <v>4.532397558527029</v>
+        <v>4.452742545988865</v>
       </c>
       <c r="N1" t="n">
-        <v>4.912164221873189</v>
+        <v>4.825587445249057</v>
       </c>
       <c r="O1" t="n">
-        <v>5.382125663502482</v>
+        <v>5.267579900209825</v>
       </c>
       <c r="P1" t="n">
-        <v>6.035038704462766</v>
+        <v>5.875211611579907</v>
       </c>
       <c r="Q1" t="n">
-        <v>6.847669112368041</v>
+        <v>6.671216220393557</v>
       </c>
       <c r="R1" t="n">
-        <v>7.4152137695055815</v>
+        <v>7.344644320588442</v>
       </c>
       <c r="S1" t="n">
-        <v>7.31633592541903</v>
+        <v>7.385616229429412</v>
       </c>
       <c r="T1" t="n">
-        <v>6.904929568048362</v>
+        <v>6.99238278938365</v>
       </c>
       <c r="U1" t="n">
-        <v>6.6022126141192</v>
+        <v>6.653063324495002</v>
       </c>
       <c r="V1" t="n">
-        <v>6.434965403810999</v>
+        <v>6.465602762238107</v>
       </c>
       <c r="W1" t="n">
-        <v>6.28872302008299</v>
+        <v>6.323025262163143</v>
       </c>
       <c r="X1" t="n">
-        <v>6.106947515841183</v>
+        <v>6.149082467430473</v>
       </c>
       <c r="Y1" t="n">
-        <v>5.9019105384412835</v>
+        <v>5.947429931069542</v>
       </c>
       <c r="Z1" t="n">
-        <v>5.684987653332726</v>
+        <v>5.733019108148369</v>
       </c>
       <c r="AA1" t="n">
-        <v>5.455451024153692</v>
+        <v>5.506279820373762</v>
       </c>
       <c r="AB1" t="n">
-        <v>5.213714319912126</v>
+        <v>5.2670517377194725</v>
       </c>
       <c r="AC1" t="n">
-        <v>4.961454124127235</v>
+        <v>5.016921915116359</v>
       </c>
       <c r="AD1" t="n">
-        <v>4.700569174174616</v>
+        <v>4.757727024423365</v>
       </c>
       <c r="AE1" t="n">
-        <v>4.4332976264093364</v>
+        <v>4.491634700995912</v>
       </c>
       <c r="AF1" t="n">
-        <v>4.162142131522205</v>
+        <v>4.221098490037824</v>
       </c>
       <c r="AG1" t="n">
-        <v>3.8897703732657583</v>
+        <v>3.9487594260928223</v>
       </c>
       <c r="AH1" t="n">
-        <v>3.6189026727169984</v>
+        <v>3.677336411134979</v>
       </c>
       <c r="AI1" t="n">
-        <v>3.352194337919632</v>
+        <v>3.4095086828851096</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.0921241761930567</v>
+        <v>3.147802075276352</v>
       </c>
       <c r="AK1" t="n">
-        <v>2.8408992812596976</v>
+        <v>2.894489528262227</v>
       </c>
       <c r="AL1" t="n">
-        <v>2.6003836679096177</v>
+        <v>2.6515140812296765</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.3720548076921815</v>
+        <v>2.4204392094298997</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.156988404636629</v>
+        <v>2.202427625811806</v>
       </c>
       <c r="AO1" t="n">
-        <v>1.9558685430396365</v>
+        <v>1.9982463039096474</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.7690181107348446</v>
+        <v>1.8082930119491392</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.596443320331402</v>
+        <v>1.6326383190914602</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.4378861182111666</v>
+        <v>1.4710767937798668</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.2928790146916822</v>
+        <v>1.3231817172993665</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.160798055892698</v>
+        <v>1.1883587545424834</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0409109842734519</v>
+        <v>1.0658953424668745</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9324188756704671</v>
+        <v>0.9550038304746932</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8344905641325209</v>
+        <v>0.8548574842856694</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.7462899214144147</v>
+        <v>0.7646192794689831</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-69.4136815962863</v>
+        <v>-75.64191464121406</v>
       </c>
       <c r="B2" t="n">
-        <v>-47.793172526222506</v>
+        <v>-51.65299942361785</v>
       </c>
       <c r="C2" t="n">
-        <v>-34.114063554015274</v>
+        <v>-36.59769834923159</v>
       </c>
       <c r="D2" t="n">
-        <v>-25.090316955465234</v>
+        <v>-26.7596738803924</v>
       </c>
       <c r="E2" t="n">
-        <v>-18.87022938808513</v>
+        <v>-20.04167163827051</v>
       </c>
       <c r="F2" t="n">
-        <v>-14.40523748455074</v>
+        <v>-15.259185971442246</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.088149727426643</v>
+        <v>-11.730552133964512</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.554001684829588</v>
+        <v>-9.049787721240355</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.572532892213993</v>
+        <v>-6.963605737104119</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.990377620575313</v>
+        <v>-5.305301229978564</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.699805910114275</v>
+        <v>-3.9590601008778763</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.621854796736827</v>
+        <v>-2.840631313107542</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.6982309589806484</v>
+        <v>-1.887552885583234</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8914831095946507</v>
+        <v>-1.0572761285031411</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2002973301144331</v>
+        <v>-0.3380404272773021</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2922569540565662</v>
+        <v>0.2117165867971017</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3540404809659567</v>
+        <v>0.39226627429158006</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.18443380417212119</v>
+        <v>-0.029810691669904223</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.8501078863417684</v>
+        <v>-0.7326442736725921</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.1224774049440636</v>
+        <v>-1.096162446711652</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.1345420920953158</v>
+        <v>-1.1389802692270052</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.136500235149272</v>
+        <v>-1.130542115130939</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.2010751389097671</v>
+        <v>-1.1834061167456762</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.2864684811711282</v>
+        <v>-1.2684620863318485</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.362618091157519</v>
+        <v>-1.3469221438144887</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.4317799144832613</v>
+        <v>-1.4171878706180174</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.4955853482882684</v>
+        <v>-1.482328532344836</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.551831693187407</v>
+        <v>-1.5403754160738683</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.5988684829625155</v>
+        <v>-1.5895286098181114</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.6353260178626912</v>
+        <v>-1.6283857164881148</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.660066488018049</v>
+        <v>-1.655745581290491</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.672293173416767</v>
+        <v>-1.6707323732541781</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.6716042857232027</v>
+        <v>-1.6728551768978432</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.6580226035446672</v>
+        <v>-1.6620438125801178</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.631993779286757</v>
+        <v>-1.6386540388277304</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.5943537111375985</v>
+        <v>-1.6034413996551378</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.546269205116648</v>
+        <v>-1.5575071370164606</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.489159319050991</v>
+        <v>-1.5022229812104597</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.42460652291021</v>
+        <v>-1.4391437115398655</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.3542669562716074</v>
+        <v>-1.3699168667907689</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.2797878151265782</v>
+        <v>-1.2961980057206925</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.2027377255534082</v>
+        <v>-1.2195778964543544</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.124553424877607</v>
+        <v>-1.1415255085862486</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.0465036729412172</v>
+        <v>-1.0633482183935232</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.9696693974320653</v>
+        <v>-0.9861685957217152</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.8949377910594147</v>
+        <v>-0.9109157136435063</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.8230074192249894</v>
+        <v>-0.8383281335652107</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.7544012565003723</v>
+        <v>-0.7689654779418444</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.6894847957196216</v>
+        <v>-0.7032256624953096</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.6284868118755234</v>
+        <v>-0.6413652639778231</v>
       </c>
     </row>
   </sheetData>
@@ -699,306 +699,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.95587192246032</v>
+        <v>3.3000597494526316</v>
       </c>
       <c r="B1" t="n">
-        <v>1.7456373561761285</v>
+        <v>1.9627575730652496</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9823543826671461</v>
+        <v>1.1192620561278817</v>
       </c>
       <c r="D1" t="n">
-        <v>0.5012972319180153</v>
+        <v>0.5875394987170323</v>
       </c>
       <c r="E1" t="n">
-        <v>0.19864353404215312</v>
+        <v>0.252833342227516</v>
       </c>
       <c r="F1" t="n">
-        <v>0.009076657906627312</v>
+        <v>0.042908234034906886</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.10830388875504399</v>
+        <v>-0.08753283837366257</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.17879923726920427</v>
+        <v>-0.1666152836646757</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.21755424134420842</v>
+        <v>-0.21134723584226517</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.2328021352741362</v>
+        <v>-0.23126725662716974</v>
       </c>
       <c r="K1" t="n">
-        <v>-0.22762376632936476</v>
+        <v>-0.23048184985730652</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.20063671859634197</v>
+        <v>-0.2085623366487756</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.14583623950049043</v>
+        <v>-0.16055710170184076</v>
       </c>
       <c r="N1" t="n">
-        <v>-0.05175488286380859</v>
+        <v>-0.07627583436828768</v>
       </c>
       <c r="O1" t="n">
-        <v>0.09936290282020312</v>
+        <v>0.06068382790906963</v>
       </c>
       <c r="P1" t="n">
-        <v>0.32809195866203716</v>
+        <v>0.2712641309120631</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6247017363259236</v>
+        <v>0.5593886303073295</v>
       </c>
       <c r="R1" t="n">
-        <v>0.743051892944387</v>
+        <v>0.7701595380875321</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.4320358064543625</v>
+        <v>0.00293805494055561</v>
       </c>
       <c r="T1" t="n">
-        <v>-2.2238578299668252</v>
+        <v>-2.035207166119958</v>
       </c>
       <c r="U1" t="n">
-        <v>-1.5427562120510665</v>
+        <v>-1.834135269201518</v>
       </c>
       <c r="V1" t="n">
-        <v>0.21849868927069155</v>
+        <v>-0.20422963596220614</v>
       </c>
       <c r="W1" t="n">
-        <v>2.1174790226303113</v>
+        <v>1.773242677859174</v>
       </c>
       <c r="X1" t="n">
-        <v>2.2629034213993764</v>
+        <v>2.3723295286508317</v>
       </c>
       <c r="Y1" t="n">
-        <v>2.3986876995467483</v>
+        <v>2.273334613146123</v>
       </c>
       <c r="Z1" t="n">
-        <v>3.126498257219726</v>
+        <v>2.975872276107297</v>
       </c>
       <c r="AA1" t="n">
-        <v>3.636830250561405</v>
+        <v>3.550940024567826</v>
       </c>
       <c r="AB1" t="n">
-        <v>3.9110614036492395</v>
+        <v>3.8660714624648165</v>
       </c>
       <c r="AC1" t="n">
-        <v>4.029594218363418</v>
+        <v>4.015611096181386</v>
       </c>
       <c r="AD1" t="n">
-        <v>4.024489381019305</v>
+        <v>4.034234002650275</v>
       </c>
       <c r="AE1" t="n">
-        <v>3.931385597658835</v>
+        <v>3.9574253703403834</v>
       </c>
       <c r="AF1" t="n">
-        <v>3.7796264145527383</v>
+        <v>3.8162870122141275</v>
       </c>
       <c r="AG1" t="n">
-        <v>3.590953907110483</v>
+        <v>3.634109759135991</v>
       </c>
       <c r="AH1" t="n">
-        <v>3.3808252260919534</v>
+        <v>3.427579391609286</v>
       </c>
       <c r="AI1" t="n">
-        <v>3.1600011576292033</v>
+        <v>3.208344787450907</v>
       </c>
       <c r="AJ1" t="n">
-        <v>2.935938863225158</v>
+        <v>2.9844785787315806</v>
       </c>
       <c r="AK1" t="n">
-        <v>2.713829085164712</v>
+        <v>2.7615921064377833</v>
       </c>
       <c r="AL1" t="n">
-        <v>2.4973090329269527</v>
+        <v>2.543612352015691</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.2889306783430405</v>
+        <v>2.3332962011562155</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.09046196964371</v>
+        <v>2.132562083887096</v>
       </c>
       <c r="AO1" t="n">
-        <v>1.9030813220821554</v>
+        <v>1.9427034251259039</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.7275075510880982</v>
+        <v>1.764529803318379</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.5640925023512058</v>
+        <v>1.5984659607570795</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.4128927152381883</v>
+        <v>1.4446270447671072</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.2737290633129719</v>
+        <v>1.302880363792421</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.1462386856430744</v>
+        <v>1.1728987804136148</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0299208969764422</v>
+        <v>1.0542078632440817</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.924177488507666</v>
+        <v>0.9462273999445358</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8283473827570822</v>
+        <v>0.8483072830887481</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.741735603175014</v>
+        <v>0.7597577070612404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.7114190212796083</v>
+        <v>1.798726063604721</v>
       </c>
       <c r="B2" t="n">
-        <v>1.3554361484356072</v>
+        <v>1.4264287315049256</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0664222884447687</v>
+        <v>1.1240352057313472</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8316069560409237</v>
+        <v>0.8784815620256335</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6398186502334205</v>
+        <v>0.6782318167422573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.48155076105196537</v>
+        <v>0.5134275374561043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.34880347020196534</v>
+        <v>0.3757605708067322</v>
       </c>
       <c r="H2" t="n">
-        <v>0.23486330856425164</v>
+        <v>0.2582572322956953</v>
       </c>
       <c r="I2" t="n">
-        <v>0.13410510580691568</v>
+        <v>0.1550700941917906</v>
       </c>
       <c r="J2" t="n">
-        <v>0.041876803775511624</v>
+        <v>0.06133941644168707</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.045449874654426806</v>
+        <v>-0.026802503135840153</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.13008115981091067</v>
+        <v>-0.11193319660480777</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.21161878813550983</v>
+        <v>-0.1943868857774323</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.28404672039089207</v>
+        <v>-0.2697817720862869</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3282623143002671</v>
+        <v>-0.3228907204552044</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.29313427573371004</v>
+        <v>-0.31219711260248656</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.04801795328260321</v>
+        <v>-0.13057944484489434</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6807907833746607</v>
+        <v>0.4670880298188561</v>
       </c>
       <c r="S2" t="n">
-        <v>1.626824195967738</v>
+        <v>1.5214627624266621</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1525421375466527</v>
+        <v>0.6895511969909227</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.0816454244665135</v>
+        <v>-1.6834884780409018</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.49921403053844</v>
+        <v>-3.2192137261061586</v>
       </c>
       <c r="W2" t="n">
-        <v>-5.150792438846788</v>
+        <v>-4.709625146518567</v>
       </c>
       <c r="X2" t="n">
-        <v>-6.707145615153622</v>
+        <v>-6.581365171308114</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.25617927228035</v>
+        <v>-6.399777075709133</v>
       </c>
       <c r="Z2" t="n">
-        <v>-5.721103168674843</v>
+        <v>-5.820208321339945</v>
       </c>
       <c r="AA2" t="n">
-        <v>-5.268212555046544</v>
+        <v>-5.371614069254342</v>
       </c>
       <c r="AB2" t="n">
-        <v>-4.7555698403918685</v>
+        <v>-4.868806243943185</v>
       </c>
       <c r="AC2" t="n">
-        <v>-4.248338526755786</v>
+        <v>-4.354996544811098</v>
       </c>
       <c r="AD2" t="n">
-        <v>-3.7871383703978028</v>
+        <v>-3.8824268439047156</v>
       </c>
       <c r="AE2" t="n">
-        <v>-3.3830299485404702</v>
+        <v>-3.465612261133212</v>
       </c>
       <c r="AF2" t="n">
-        <v>-3.0362848928924215</v>
+        <v>-3.106797979035249</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.7410694841889627</v>
+        <v>-2.8010621834436225</v>
       </c>
       <c r="AH2" t="n">
-        <v>-2.4893791318051828</v>
+        <v>-2.54064485481385</v>
       </c>
       <c r="AI2" t="n">
-        <v>-2.273106823787777</v>
+        <v>-2.3173504555949553</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-2.0850033370569245</v>
+        <v>-2.1236992971991233</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.919021324172834</v>
+        <v>-1.953373428536512</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.7703473693088927</v>
+        <v>-1.801298326273552</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.6352901594121643</v>
+        <v>-1.6635527332741187</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.511112358973357</v>
+        <v>-1.5372079142785973</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.3958501436684045</v>
+        <v>-1.4201474883749663</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.288141888139434</v>
+        <v>-1.3108929940050849</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.187076117822892</v>
+        <v>-1.20844716076287</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.0920629001324422</v>
+        <v>-1.1121600600468426</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.0027295342059397</v>
+        <v>-1.0216195711995548</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.9188394025192981</v>
+        <v>-0.9365653814394134</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.8402316256736314</v>
+        <v>-0.8568243740749578</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.7667784856060147</v>
+        <v>-0.7822644771946479</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.6983573305461056</v>
+        <v>-0.7127637098486558</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.6348337467652799</v>
+        <v>-0.6481911728115763</v>
       </c>
     </row>
   </sheetData>
